--- a/imp_exp_hydro/PNW_hydro_minflow_profile.xlsx
+++ b/imp_exp_hydro/PNW_hydro_minflow_profile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Hill\Desktop\BPA_stuff\PNW_Dispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Hill\Desktop\BPA_stuff\PNW_Dispatch\imp_exp_hydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,14 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>hydro min</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,17 +829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A365"/>
+  <dimension ref="A1:A366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>5699.6831056258798</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -911,1672 +917,1672 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>5684.6905218823804</v>
+        <v>5699.6831056258798</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>5660.1751886498596</v>
+        <v>5684.6905218823804</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>5611.2194624326803</v>
+        <v>5660.1751886498596</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>5571.0690279181999</v>
+        <v>5611.2194624326803</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>5508.5099312579196</v>
+        <v>5571.0690279181999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>5430.4479440257201</v>
+        <v>5508.5099312579196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>5361.6378679796899</v>
+        <v>5430.4479440257201</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>5307.4959697014301</v>
+        <v>5361.6378679796899</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>5260.9831414149303</v>
+        <v>5307.4959697014301</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>5284.8835193899804</v>
+        <v>5260.9831414149303</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>5302.3762330627796</v>
+        <v>5284.8835193899804</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>5296.3729973935497</v>
+        <v>5302.3762330627796</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>5255.0942197223703</v>
+        <v>5296.3729973935497</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>5260.1264301063402</v>
+        <v>5255.0942197223703</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>5274.6337844551399</v>
+        <v>5260.1264301063402</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>5238.53657468235</v>
+        <v>5274.6337844551399</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>5217.0060426676</v>
+        <v>5238.53657468235</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>5262.7217903989003</v>
+        <v>5217.0060426676</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>5258.0908348092098</v>
+        <v>5262.7217903989003</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>5237.0533948251596</v>
+        <v>5258.0908348092098</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>5217.1200090280499</v>
+        <v>5237.0533948251596</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>5169.2205712965497</v>
+        <v>5217.1200090280499</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>5170.0970544845204</v>
+        <v>5169.2205712965497</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>5169.3406568990704</v>
+        <v>5170.0970544845204</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>5161.6676666173798</v>
+        <v>5169.3406568990704</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>5124.16609862102</v>
+        <v>5161.6676666173798</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>5112.4673360534898</v>
+        <v>5124.16609862102</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>5088.3364140162403</v>
+        <v>5112.4673360534898</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>5086.4517507751198</v>
+        <v>5088.3364140162403</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>5084.4144281291101</v>
+        <v>5086.4517507751198</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>5087.1543499363797</v>
+        <v>5084.4144281291101</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>5112.4092331247102</v>
+        <v>5087.1543499363797</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>5125.4007161203299</v>
+        <v>5112.4092331247102</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>5086.6879147148802</v>
+        <v>5125.4007161203299</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>5106.3538922655998</v>
+        <v>5086.6879147148802</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>5108.1412308478702</v>
+        <v>5106.3538922655998</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>5085.6135182365697</v>
+        <v>5108.1412308478702</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>5070.68224428535</v>
+        <v>5085.6135182365697</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>5061.86270158755</v>
+        <v>5070.68224428535</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>4987.5305310337199</v>
+        <v>5061.86270158755</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>4917.0191677297798</v>
+        <v>4987.5305310337199</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>4878.88536175647</v>
+        <v>4917.0191677297798</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>4886.9755092538098</v>
+        <v>4878.88536175647</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>4856.6204249365501</v>
+        <v>4886.9755092538098</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>4825.1312064521899</v>
+        <v>4856.6204249365501</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>4820.14093639564</v>
+        <v>4825.1312064521899</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>4784.02122000909</v>
+        <v>4820.14093639564</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>4735.7597226973003</v>
+        <v>4784.02122000909</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>4740.5239269857802</v>
+        <v>4735.7597226973003</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>4758.1422497064596</v>
+        <v>4740.5239269857802</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>4763.7576490889496</v>
+        <v>4758.1422497064596</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>4767.2359620183797</v>
+        <v>4763.7576490889496</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>4725.8607214212097</v>
+        <v>4767.2359620183797</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>4685.4537474131603</v>
+        <v>4725.8607214212097</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>4629.2622968164496</v>
+        <v>4685.4537474131603</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>4608.1237549457301</v>
+        <v>4629.2622968164496</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>4577.4264337243203</v>
+        <v>4608.1237549457301</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>4566.7408587152404</v>
+        <v>4577.4264337243203</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>4566.0432800333801</v>
+        <v>4566.7408587152404</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>4541.2683304720204</v>
+        <v>4566.0432800333801</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>4527.5587417269599</v>
+        <v>4541.2683304720204</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>4498.5905499881101</v>
+        <v>4527.5587417269599</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>4495.07698401778</v>
+        <v>4498.5905499881101</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>4518.5621288595003</v>
+        <v>4495.07698401778</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>4488.9165476437602</v>
+        <v>4518.5621288595003</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>4497.13351549461</v>
+        <v>4488.9165476437602</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>4509.9929063673599</v>
+        <v>4497.13351549461</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>4501.5488424507103</v>
+        <v>4509.9929063673599</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>4491.7687347850597</v>
+        <v>4501.5488424507103</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>4511.4828097309401</v>
+        <v>4491.7687347850597</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>4542.1599903108399</v>
+        <v>4511.4828097309401</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>4565.5784672831796</v>
+        <v>4542.1599903108399</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>4561.7034387112099</v>
+        <v>4565.5784672831796</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>4566.65030145538</v>
+        <v>4561.7034387112099</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>4550.3405697386697</v>
+        <v>4566.65030145538</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>4514.0386175438098</v>
+        <v>4550.3405697386697</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>4510.29901995607</v>
+        <v>4514.0386175438098</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>4501.41520121962</v>
+        <v>4510.29901995607</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>4462.7417354068502</v>
+        <v>4501.41520121962</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>4448.4250172947404</v>
+        <v>4462.7417354068502</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>4440.1051794272698</v>
+        <v>4448.4250172947404</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>4429.1693478975203</v>
+        <v>4440.1051794272698</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>4419.9113264132902</v>
+        <v>4429.1693478975203</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>4414.4715591330096</v>
+        <v>4419.9113264132902</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>4429.2417484390298</v>
+        <v>4414.4715591330096</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>4436.4124913948899</v>
+        <v>4429.2417484390298</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>4408.1641753551403</v>
+        <v>4436.4124913948899</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>4386.3769989679004</v>
+        <v>4408.1641753551403</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>4397.6262248711901</v>
+        <v>4386.3769989679004</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>4426.8538661531902</v>
+        <v>4397.6262248711901</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>4481.0151881819302</v>
+        <v>4426.8538661531902</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>4516.1750715012204</v>
+        <v>4481.0151881819302</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>4532.5238500612504</v>
+        <v>4516.1750715012204</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>4529.07535807983</v>
+        <v>4532.5238500612504</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>4557.9635662384499</v>
+        <v>4529.07535807983</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>4601.1108472085698</v>
+        <v>4557.9635662384499</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>4600.9418344605701</v>
+        <v>4601.1108472085698</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>4610.4432396955899</v>
+        <v>4600.9418344605701</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>4613.5185876755604</v>
+        <v>4610.4432396955899</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>4611.7751463457198</v>
+        <v>4613.5185876755604</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>4612.4217363513199</v>
+        <v>4611.7751463457198</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>4609.0992556963001</v>
+        <v>4612.4217363513199</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>4629.6468919250201</v>
+        <v>4609.0992556963001</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>4637.3845905642402</v>
+        <v>4629.6468919250201</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>4658.9699882769</v>
+        <v>4637.3845905642402</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>4757.7678403413001</v>
+        <v>4658.9699882769</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>4876.3221162223099</v>
+        <v>4757.7678403413001</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>4952.1705863255402</v>
+        <v>4876.3221162223099</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>5031.6068094836501</v>
+        <v>4952.1705863255402</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>5057.5764204366096</v>
+        <v>5031.6068094836501</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>5073.5930162098302</v>
+        <v>5057.5764204366096</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>5112.09573355252</v>
+        <v>5073.5930162098302</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>5148.5428455978799</v>
+        <v>5112.09573355252</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>5179.26337923347</v>
+        <v>5148.5428455978799</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>5192.1627709838403</v>
+        <v>5179.26337923347</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>5219.9709516071198</v>
+        <v>5192.1627709838403</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>5276.5146579335196</v>
+        <v>5219.9709516071198</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>5302.9297098860898</v>
+        <v>5276.5146579335196</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>5309.8434414353196</v>
+        <v>5302.9297098860898</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>5334.8269178053497</v>
+        <v>5309.8434414353196</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>5314.8630406868597</v>
+        <v>5334.8269178053497</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>5318.8111601238497</v>
+        <v>5314.8630406868597</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>5317.7348215868196</v>
+        <v>5318.8111601238497</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>5329.5759663159997</v>
+        <v>5317.7348215868196</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>5353.9698819086298</v>
+        <v>5329.5759663159997</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>5340.3309501987897</v>
+        <v>5353.9698819086298</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>5343.6922003193504</v>
+        <v>5340.3309501987897</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>5388.4525000678595</v>
+        <v>5343.6922003193504</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>5433.56682038082</v>
+        <v>5388.4525000678595</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>5483.3320654479503</v>
+        <v>5433.56682038082</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>5479.2700686821599</v>
+        <v>5483.3320654479503</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>5500.9628336319602</v>
+        <v>5479.2700686821599</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>5506.8685857185401</v>
+        <v>5500.9628336319602</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>5511.6722444453399</v>
+        <v>5506.8685857185401</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>5498.6093711759304</v>
+        <v>5511.6722444453399</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>5432.5353058626497</v>
+        <v>5498.6093711759304</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>5358.2830292456701</v>
+        <v>5432.5353058626497</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>5306.0542110956703</v>
+        <v>5358.2830292456701</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>5248.8178540522504</v>
+        <v>5306.0542110956703</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>5248.1675638463203</v>
+        <v>5248.8178540522504</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>5241.1332347211701</v>
+        <v>5248.1675638463203</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>5225.8965743745703</v>
+        <v>5241.1332347211701</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>5253.1414963465104</v>
+        <v>5225.8965743745703</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>5241.1319006067997</v>
+        <v>5253.1414963465104</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>5230.2044285019101</v>
+        <v>5241.1319006067997</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>5208.68626423145</v>
+        <v>5230.2044285019101</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>5189.8142843823698</v>
+        <v>5208.68626423145</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>5215.0437028689403</v>
+        <v>5189.8142843823698</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>5188.7050061989403</v>
+        <v>5215.0437028689403</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>5142.8938283657699</v>
+        <v>5188.7050061989403</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>5125.5141687652804</v>
+        <v>5142.8938283657699</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>5071.5025396641404</v>
+        <v>5125.5141687652804</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>5033.5457874044996</v>
+        <v>5071.5025396641404</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>5013.3844087695797</v>
+        <v>5033.5457874044996</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>4940.5961484519403</v>
+        <v>5013.3844087695797</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>4859.6792986972296</v>
+        <v>4940.5961484519403</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>4800.7563924041897</v>
+        <v>4859.6792986972296</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>4710.0936304807501</v>
+        <v>4800.7563924041897</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>4614.0886502645299</v>
+        <v>4710.0936304807501</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>4505.0563021277603</v>
+        <v>4614.0886502645299</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>4452.8853930227697</v>
+        <v>4505.0563021277603</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>4388.6887254148196</v>
+        <v>4452.8853930227697</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>4319.8938275807895</v>
+        <v>4388.6887254148196</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>4280.9700003990802</v>
+        <v>4319.8938275807895</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>4254.3760336886198</v>
+        <v>4280.9700003990802</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>4202.9188760767702</v>
+        <v>4254.3760336886198</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>4139.0138625504796</v>
+        <v>4202.9188760767702</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>4111.9051350772397</v>
+        <v>4139.0138625504796</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>4085.7679911638002</v>
+        <v>4111.9051350772397</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>4035.2519962461201</v>
+        <v>4085.7679911638002</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>3986.1893011533898</v>
+        <v>4035.2519962461201</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>3938.06210385854</v>
+        <v>3986.1893011533898</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>3858.0712567673199</v>
+        <v>3938.06210385854</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>3812.67298051834</v>
+        <v>3858.0712567673199</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>3788.53563344641</v>
+        <v>3812.67298051834</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>3758.5087470283802</v>
+        <v>3788.53563344641</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>3712.78000186597</v>
+        <v>3758.5087470283802</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>3646.7062316044398</v>
+        <v>3712.78000186597</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>3629.69435564781</v>
+        <v>3646.7062316044398</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>3578.9305174682599</v>
+        <v>3629.69435564781</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>3531.8014753747598</v>
+        <v>3578.9305174682599</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>3519.1926612219099</v>
+        <v>3531.8014753747598</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>3512.1094861112301</v>
+        <v>3519.1926612219099</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>3508.50545918034</v>
+        <v>3512.1094861112301</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>3526.6613597180399</v>
+        <v>3508.50545918034</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>3561.7123543563198</v>
+        <v>3526.6613597180399</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>3576.1227486222901</v>
+        <v>3561.7123543563198</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>3590.4757844594301</v>
+        <v>3576.1227486222901</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>3619.3546403006899</v>
+        <v>3590.4757844594301</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>3681.7030436340401</v>
+        <v>3619.3546403006899</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>3720.0034148443201</v>
+        <v>3681.7030436340401</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>3757.9808392691498</v>
+        <v>3720.0034148443201</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>3787.8134070299002</v>
+        <v>3757.9808392691498</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>3783.74295285069</v>
+        <v>3787.8134070299002</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>3786.4390068683902</v>
+        <v>3783.74295285069</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>3812.0165600682599</v>
+        <v>3786.4390068683902</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>3824.3047412449801</v>
+        <v>3812.0165600682599</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>3825.3847679327801</v>
+        <v>3824.3047412449801</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>3827.6750595492199</v>
+        <v>3825.3847679327801</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>3816.04022653932</v>
+        <v>3827.6750595492199</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>3801.73409101571</v>
+        <v>3816.04022653932</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>3797.31350833537</v>
+        <v>3801.73409101571</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>3796.92891406218</v>
+        <v>3797.31350833537</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>3819.6327403739001</v>
+        <v>3796.92891406218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>3814.5478138599301</v>
+        <v>3819.6327403739001</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>3816.1209982980199</v>
+        <v>3814.5478138599301</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>3819.93702739322</v>
+        <v>3816.1209982980199</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>3826.2127854022001</v>
+        <v>3819.93702739322</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>3834.7181215225201</v>
+        <v>3826.2127854022001</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>3860.7265439548</v>
+        <v>3834.7181215225201</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>3870.87345515985</v>
+        <v>3860.7265439548</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>3863.3277234942502</v>
+        <v>3870.87345515985</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>3859.9192657117801</v>
+        <v>3863.3277234942502</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>3834.0788652942401</v>
+        <v>3859.9192657117801</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>3806.6729720245498</v>
+        <v>3834.0788652942401</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>3784.3651401733</v>
+        <v>3806.6729720245498</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>3776.8535963404702</v>
+        <v>3784.3651401733</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>3769.1660220598401</v>
+        <v>3776.8535963404702</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>3746.4961072850101</v>
+        <v>3769.1660220598401</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>3686.1279694614</v>
+        <v>3746.4961072850101</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>3650.2535172573898</v>
+        <v>3686.1279694614</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>3607.72980767218</v>
+        <v>3650.2535172573898</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>3576.5165015625598</v>
+        <v>3607.72980767218</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>3577.4555116910701</v>
+        <v>3576.5165015625598</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>3563.91221934857</v>
+        <v>3577.4555116910701</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>3553.7690499476598</v>
+        <v>3563.91221934857</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>3529.8443300951899</v>
+        <v>3553.7690499476598</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>3520.6045977856002</v>
+        <v>3529.8443300951899</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>3503.3156874025599</v>
+        <v>3520.6045977856002</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>3482.4118754544202</v>
+        <v>3503.3156874025599</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>3487.21175617473</v>
+        <v>3482.4118754544202</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>3485.4389960078902</v>
+        <v>3487.21175617473</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>3496.8597765157701</v>
+        <v>3485.4389960078902</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>3496.1793926918699</v>
+        <v>3496.8597765157701</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>3505.1837083847299</v>
+        <v>3496.1793926918699</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>3494.8267457718898</v>
+        <v>3505.1837083847299</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>3476.4330835594001</v>
+        <v>3494.8267457718898</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>3463.2159890903299</v>
+        <v>3476.4330835594001</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>3441.8864856042701</v>
+        <v>3463.2159890903299</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>3428.1395773484201</v>
+        <v>3441.8864856042701</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>3418.6638789052299</v>
+        <v>3428.1395773484201</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>3432.27075496618</v>
+        <v>3418.6638789052299</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>3417.9433489212602</v>
+        <v>3432.27075496618</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>3406.9246421595799</v>
+        <v>3417.9433489212602</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>3406.8685410179301</v>
+        <v>3406.9246421595799</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>3405.3101319657599</v>
+        <v>3406.8685410179301</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>3402.40288908814</v>
+        <v>3405.3101319657599</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>3392.9505988365299</v>
+        <v>3402.40288908814</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>3394.4790576447999</v>
+        <v>3392.9505988365299</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>3404.7044472325701</v>
+        <v>3394.4790576447999</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>3403.5123262428901</v>
+        <v>3404.7044472325701</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>3411.0464699579502</v>
+        <v>3403.5123262428901</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>3412.7272231214702</v>
+        <v>3411.0464699579502</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>3412.2695411258001</v>
+        <v>3412.7272231214702</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>3416.1101496655801</v>
+        <v>3412.2695411258001</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>3415.16235273859</v>
+        <v>3416.1101496655801</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>3429.28418929697</v>
+        <v>3415.16235273859</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>3435.7342861115899</v>
+        <v>3429.28418929697</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>3450.0433885294701</v>
+        <v>3435.7342861115899</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>3484.1612643344101</v>
+        <v>3450.0433885294701</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>3516.4383775256701</v>
+        <v>3484.1612643344101</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>3532.97491719561</v>
+        <v>3516.4383775256701</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>3533.6741395501799</v>
+        <v>3532.97491719561</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>3513.29633044813</v>
+        <v>3533.6741395501799</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>3501.6246014604299</v>
+        <v>3513.29633044813</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>3520.7060453112399</v>
+        <v>3501.6246014604299</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>3558.1154118898498</v>
+        <v>3520.7060453112399</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>3569.41937910872</v>
+        <v>3558.1154118898498</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>3578.3524469919098</v>
+        <v>3569.41937910872</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>3585.8961969486099</v>
+        <v>3578.3524469919098</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>3604.2095904685698</v>
+        <v>3585.8961969486099</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>3604.1008040218999</v>
+        <v>3604.2095904685698</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>3619.76974363107</v>
+        <v>3604.1008040218999</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>3632.1990030336301</v>
+        <v>3619.76974363107</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>3648.4455137611999</v>
+        <v>3632.1990030336301</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>3652.10345781451</v>
+        <v>3648.4455137611999</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>3675.98278553105</v>
+        <v>3652.10345781451</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>3689.1893538642698</v>
+        <v>3675.98278553105</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>3698.4320773642698</v>
+        <v>3689.1893538642698</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>3746.06433016754</v>
+        <v>3698.4320773642698</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>3810.0869120248999</v>
+        <v>3746.06433016754</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>3858.3756631464798</v>
+        <v>3810.0869120248999</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>3921.5279939061702</v>
+        <v>3858.3756631464798</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>3941.5325889452401</v>
+        <v>3921.5279939061702</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>3951.33745762956</v>
+        <v>3941.5325889452401</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>3954.1626561108301</v>
+        <v>3951.33745762956</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>3967.3503256459098</v>
+        <v>3954.1626561108301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>3961.6195102607999</v>
+        <v>3967.3503256459098</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>3973.7518765806699</v>
+        <v>3961.6195102607999</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>3997.2413864189498</v>
+        <v>3973.7518765806699</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>4026.90628988649</v>
+        <v>3997.2413864189498</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>4065.99039858588</v>
+        <v>4026.90628988649</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>4089.6994067964501</v>
+        <v>4065.99039858588</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>4140.9455900555504</v>
+        <v>4089.6994067964501</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>4195.7072926296496</v>
+        <v>4140.9455900555504</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>4257.0852257794704</v>
+        <v>4195.7072926296496</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>4278.0029101138798</v>
+        <v>4257.0852257794704</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>4341.0223146523604</v>
+        <v>4278.0029101138798</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>4409.4539109869002</v>
+        <v>4341.0223146523604</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>4475.5929932660601</v>
+        <v>4409.4539109869002</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>4570.3142106145197</v>
+        <v>4475.5929932660601</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>4685.5170671061196</v>
+        <v>4570.3142106145197</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>4766.3630297015598</v>
+        <v>4685.5170671061196</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>4833.8971640600603</v>
+        <v>4766.3630297015598</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>4898.3888080527104</v>
+        <v>4833.8971640600603</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>4953.9115903755701</v>
+        <v>4898.3888080527104</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>5001.3625361340901</v>
+        <v>4953.9115903755701</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>5091.5362971231698</v>
+        <v>5001.3625361340901</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>5160.6295659589996</v>
+        <v>5091.5362971231698</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>5190.7035232591097</v>
+        <v>5160.6295659589996</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>5207.7022091340496</v>
+        <v>5190.7035232591097</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>5239.1984385526903</v>
+        <v>5207.7022091340496</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>5242.1346378402504</v>
+        <v>5239.1984385526903</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>5285.6238730101504</v>
+        <v>5242.1346378402504</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>5359.6493499481403</v>
+        <v>5285.6238730101504</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>5428.3811077141299</v>
+        <v>5359.6493499481403</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>5488.4822168928404</v>
+        <v>5428.3811077141299</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>5546.1184108615598</v>
+        <v>5488.4822168928404</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>5610.8715161566897</v>
+        <v>5546.1184108615598</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>5644.9440398195402</v>
+        <v>5610.8715161566897</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>5648.1211003283897</v>
+        <v>5644.9440398195402</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>5690.6720462508001</v>
+        <v>5648.1211003283897</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>5740.3421726413799</v>
+        <v>5690.6720462508001</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>5757.92093135494</v>
+        <v>5740.3421726413799</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>5790.7633841142697</v>
+        <v>5757.92093135494</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>5796.7055423185602</v>
+        <v>5790.7633841142697</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>5816.4424253512097</v>
+        <v>5796.7055423185602</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>5827.5078943520302</v>
+        <v>5816.4424253512097</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>5827.7378344680201</v>
+        <v>5827.5078943520302</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>5829.60171684124</v>
+        <v>5827.7378344680201</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>5819.66891264269</v>
+        <v>5829.60171684124</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>5787.3412422193496</v>
+        <v>5819.66891264269</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>5784.67218900436</v>
+        <v>5787.3412422193496</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>5794.5783483671803</v>
+        <v>5784.67218900436</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
@@ -2651,6 +2657,11 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
+        <v>5794.5783483671803</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
         <v>5794.5783483671803</v>
       </c>
     </row>
